--- a/100以内加减法100道.xlsx
+++ b/100以内加减法100道.xlsx
@@ -374,700 +374,700 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>42+23=</t>
+          <t>65+14=</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>66+20=</t>
+          <t>34+31=</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>43-27=</t>
+          <t>73-55=</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>39+60=</t>
+          <t>59+13=</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>21+48=</t>
+          <t>60-44=</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>17+65=</t>
+          <t>31+59=</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>80-71=</t>
+          <t>76-18=</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>58-41=</t>
+          <t>15+57=</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>56-41=</t>
+          <t>94-85=</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20+25=</t>
+          <t>47-14=</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>11+61=</t>
+          <t>49+40=</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>96-43=</t>
+          <t>74-25=</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>76-52=</t>
+          <t>55-21=</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>73-16=</t>
+          <t>11+57=</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>67-56=</t>
+          <t>38+25=</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>33+45=</t>
+          <t>20+66=</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>72-47=</t>
+          <t>85-44=</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>39-20=</t>
+          <t>78-53=</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>53+16=</t>
+          <t>41+53=</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>79-76=</t>
+          <t>23+17=</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>11+70=</t>
+          <t>52+33=</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>94-21=</t>
+          <t>90-76=</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>23+17=</t>
+          <t>49+40=</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>99-89=</t>
+          <t>94-30=</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>35+47=</t>
+          <t>35+44=</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>94-86=</t>
+          <t>11+74=</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>56+38=</t>
+          <t>48+20=</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>33+44=</t>
+          <t>39-16=</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>55+44=</t>
+          <t>31-24=</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>58-36=</t>
+          <t>98-12=</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>75-11=</t>
+          <t>81-57=</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>68+17=</t>
+          <t>83-24=</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>32+57=</t>
+          <t>60+25=</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>59+27=</t>
+          <t>97-19=</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>16+75=</t>
+          <t>80-41=</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>34+48=</t>
+          <t>64+28=</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>75-42=</t>
+          <t>18+78=</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>32+17=</t>
+          <t>65+11=</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>78+19=</t>
+          <t>28+16=</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>53+12=</t>
+          <t>60-47=</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>60+15=</t>
+          <t>51-39=</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>51-17=</t>
+          <t>30+58=</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>35-25=</t>
+          <t>17+64=</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>65-32=</t>
+          <t>52+29=</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>22+45=</t>
+          <t>37-17=</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>32+61=</t>
+          <t>34+65=</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>28+51=</t>
+          <t>17+28=</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>29-20=</t>
+          <t>86-33=</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>36+50=</t>
+          <t>57+17=</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>84+12=</t>
+          <t>23+53=</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>66+12=</t>
+          <t>17+39=</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>99-13=</t>
+          <t>50-37=</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>12+77=</t>
+          <t>98-29=</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>34+43=</t>
+          <t>74+22=</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>32-29=</t>
+          <t>89-33=</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>46+29=</t>
+          <t>83-46=</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>70+16=</t>
+          <t>50-42=</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>88-19=</t>
+          <t>99-53=</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>65-17=</t>
+          <t>47-21=</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>19+37=</t>
+          <t>48-36=</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>69-55=</t>
+          <t>35+31=</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>78-73=</t>
+          <t>40+26=</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>29+60=</t>
+          <t>18+76=</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>62-22=</t>
+          <t>86-31=</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>21-20=</t>
+          <t>99-78=</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>40+16=</t>
+          <t>64-36=</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>36+40=</t>
+          <t>11+24=</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>24+64=</t>
+          <t>33+61=</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>94-17=</t>
+          <t>37+50=</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>86-50=</t>
+          <t>45-37=</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>53+19=</t>
+          <t>49+19=</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>79-78=</t>
+          <t>30+13=</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>26+15=</t>
+          <t>82-19=</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>39-26=</t>
+          <t>81+14=</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>47+21=</t>
+          <t>63+33=</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>77-14=</t>
+          <t>87-43=</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>24+42=</t>
+          <t>22-13=</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>25+60=</t>
+          <t>28+22=</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>73-42=</t>
+          <t>44+33=</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>35-16=</t>
+          <t>80-28=</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>39-32=</t>
+          <t>36+34=</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>68+19=</t>
+          <t>53+43=</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>14+21=</t>
+          <t>55-20=</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>54+11=</t>
+          <t>21+31=</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>11+44=</t>
+          <t>30+53=</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>19+79=</t>
+          <t>12+76=</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>79-35=</t>
+          <t>53-17=</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>42-27=</t>
+          <t>28-15=</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>13+45=</t>
+          <t>26-13=</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>67-37=</t>
+          <t>14+75=</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>69-26=</t>
+          <t>29-24=</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>29+24=</t>
+          <t>74-60=</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>74-36=</t>
+          <t>32+54=</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>55-44=</t>
+          <t>22+36=</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>95-61=</t>
+          <t>45-18=</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>12+61=</t>
+          <t>60-47=</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>47+22=</t>
+          <t>52+30=</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>33+56=</t>
+          <t>43-19=</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>13+39=</t>
+          <t>49+50=</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>93-34=</t>
+          <t>12+85=</t>
         </is>
       </c>
     </row>
